--- a/results/pos_confront.xlsx
+++ b/results/pos_confront.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrac\Documents\Uni\Embeddings\metaphor_experiment\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9C451D-A163-4E1B-BADE-35F7C3891CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B215BA3-98DF-4172-BA60-51C5871A0ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="250" yWindow="1140" windowWidth="18950" windowHeight="8920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="250" yWindow="1520" windowWidth="18950" windowHeight="8920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pos_confront" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -678,7 +691,7 @@
     <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="43">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -692,46 +705,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -756,46 +729,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -844,46 +777,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -908,46 +801,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -972,46 +825,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -1117,6 +930,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1137,6 +960,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1217,41 +1050,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1354,18 +1167,18 @@
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="pos"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="mean_similarity"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="mean_baseline_mixed" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="mean_baseline_saved" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="mean_test_stat_mixed" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="mean_test_stat_saved" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="mean_p_value_mixed" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="mean_p_value_saved" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="amount_pos_sign_mixed" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="amount_pos_sign_saved" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="amount_pos_insign_mixed" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="amount_pos_insign_saved" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="amount_neg_sign_mixed" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="amount_neg_sign_saved" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="mean_baseline_mixed" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="mean_baseline_saved" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="mean_test_stat_mixed" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="mean_test_stat_saved" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="mean_p_value_mixed" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="mean_p_value_saved" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="amount_pos_sign_mixed" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="amount_pos_sign_saved" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="amount_pos_insign_mixed" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="amount_pos_insign_saved" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="amount_neg_sign_mixed" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="amount_neg_sign_saved" dataDxfId="1"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="amount_neg_insign_mixed" dataDxfId="0"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="amount_neg_insign_saved"/>
   </tableColumns>
@@ -1672,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1947,64 +1760,64 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="top10" dxfId="62" priority="50" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="61" priority="49" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="42" priority="50" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="41" priority="49" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C5">
-    <cfRule type="top10" dxfId="60" priority="47" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="59" priority="48" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="40" priority="47" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="48" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="top10" dxfId="58" priority="45" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="57" priority="46" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="38" priority="45" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="37" priority="46" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="top10" dxfId="44" priority="32" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="43" priority="31" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="36" priority="32" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="35" priority="31" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="top10" dxfId="42" priority="29" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="41" priority="30" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="34" priority="29" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="33" priority="30" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5">
-    <cfRule type="top10" dxfId="30" priority="19" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="29" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="32" priority="19" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="31" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="top10" dxfId="28" priority="17" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="27" priority="18" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="30" priority="17" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="29" priority="18" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="top10" dxfId="24" priority="15" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="23" priority="16" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="15" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="16" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="top10" dxfId="22" priority="13" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="21" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="13" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="25" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
-    <cfRule type="top10" dxfId="18" priority="11" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="17" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="24" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
-    <cfRule type="top10" dxfId="16" priority="9" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="15" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="9" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="21" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M5">
-    <cfRule type="top10" dxfId="9" priority="7" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="10" priority="8" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="20" priority="7" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="19" priority="8" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
-    <cfRule type="top10" dxfId="8" priority="5" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="7" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="17" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O5">
-    <cfRule type="top10" dxfId="3" priority="3" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="4" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="16" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="15" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P5">
-    <cfRule type="top10" dxfId="2" priority="1" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="14" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="13" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
